--- a/avg-multi/avg.xlsx
+++ b/avg-multi/avg.xlsx
@@ -48,7 +48,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,12 +60,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -102,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -110,13 +104,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -439,17 +427,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="44.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -458,16 +446,16 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -475,17 +463,17 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>1.044947754</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>1.223025188</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <v>1.298620783</v>
       </c>
       <c r="F2" s="3">
         <v>1.194124163</v>
@@ -501,17 +489,17 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>1.048338979</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>1.175336317</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>1.24503821</v>
       </c>
       <c r="F3" s="3">
         <v>1.179059897</v>
@@ -527,17 +515,17 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>1.045820092</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>1.166633613</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1.235429819</v>
       </c>
       <c r="F4" s="3">
         <v>1.170361225</v>
